--- a/template.xlsx
+++ b/template.xlsx
@@ -5,7 +5,7 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\USER\python_for_desk\bm_pd_summary_extractor\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\USER\python_for_desk\BM-PD_summary_all_site\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -18,43 +18,14 @@
   </sheets>
   <calcPr calcId="0"/>
   <pivotCaches>
-    <pivotCache cacheId="0" r:id="rId4"/>
+    <pivotCache cacheId="7" r:id="rId4"/>
+    <pivotCache cacheId="12" r:id="rId5"/>
   </pivotCaches>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="16">
-  <si>
-    <t>날짜</t>
-  </si>
-  <si>
-    <t>종류</t>
-  </si>
-  <si>
-    <t>호기</t>
-  </si>
-  <si>
-    <t>공정</t>
-  </si>
-  <si>
-    <t>발생시간</t>
-  </si>
-  <si>
-    <t>조치완료</t>
-  </si>
-  <si>
-    <t>처리시간(분)</t>
-  </si>
-  <si>
-    <t>작업자</t>
-  </si>
-  <si>
-    <t>현상</t>
-  </si>
-  <si>
-    <t>조치</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="21">
   <si>
     <t>행 레이블</t>
   </si>
@@ -68,10 +39,59 @@
     <t>열 레이블</t>
   </si>
   <si>
-    <t>합계 : 처리시간(분)</t>
+    <t>개수 : 현상</t>
   </si>
   <si>
-    <t>개수 : 현상</t>
+    <t>0. Site</t>
+  </si>
+  <si>
+    <t>1. 호기</t>
+  </si>
+  <si>
+    <t>2-1. Machine</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>2-2. Unit</t>
+  </si>
+  <si>
+    <t>2-3. Assy</t>
+  </si>
+  <si>
+    <t>3-1. 발생시간</t>
+  </si>
+  <si>
+    <t>3-2. 조치완료</t>
+  </si>
+  <si>
+    <t>4. 작업자</t>
+  </si>
+  <si>
+    <t>5. 현상</t>
+  </si>
+  <si>
+    <t>6. 원인</t>
+  </si>
+  <si>
+    <t>7. 조치</t>
+  </si>
+  <si>
+    <t>종류</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>날짜</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>종류</t>
+  </si>
+  <si>
+    <t>(모두)</t>
+  </si>
+  <si>
+    <t>3-3. 조치 시간(분)</t>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -136,7 +156,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
@@ -145,7 +165,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -155,11 +174,329 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="표준" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="27">
+  <dxfs count="39">
+    <dxf>
+      <border>
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical style="thin">
+          <color indexed="64"/>
+        </vertical>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical style="thin">
+          <color indexed="64"/>
+        </vertical>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical style="thin">
+          <color indexed="64"/>
+        </vertical>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical style="thin">
+          <color indexed="64"/>
+        </vertical>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical style="thin">
+          <color indexed="64"/>
+        </vertical>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical style="thin">
+          <color indexed="64"/>
+        </vertical>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical style="thin">
+          <color indexed="64"/>
+        </vertical>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical style="thin">
+          <color indexed="64"/>
+        </vertical>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical style="thin">
+          <color indexed="64"/>
+        </vertical>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical style="thin">
+          <color indexed="64"/>
+        </vertical>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical style="thin">
+          <color indexed="64"/>
+        </vertical>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical style="thin">
+          <color indexed="64"/>
+        </vertical>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical style="thin">
+          <color indexed="64"/>
+        </vertical>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical style="thin">
+          <color indexed="64"/>
+        </vertical>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment vertical="center" readingOrder="0"/>
+    </dxf>
     <dxf>
       <alignment vertical="center" readingOrder="0"/>
     </dxf>
@@ -357,56 +694,6 @@
       </border>
     </dxf>
     <dxf>
-      <alignment vertical="center" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical style="thin">
-          <color indexed="64"/>
-        </vertical>
-        <horizontal style="thin">
-          <color indexed="64"/>
-        </horizontal>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical style="thin">
-          <color indexed="64"/>
-        </vertical>
-        <horizontal style="thin">
-          <color indexed="64"/>
-        </horizontal>
-      </border>
-    </dxf>
-    <dxf>
       <border>
         <left style="thin">
           <color indexed="64"/>
@@ -466,7 +753,7 @@
 <file path=xl/pivotCache/pivotCacheDefinition1.xml><?xml version="1.0" encoding="utf-8"?>
 <pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1" refreshedBy="User" refreshedDate="45792.323349189814" createdVersion="5" refreshedVersion="5" minRefreshableVersion="3" recordCount="281">
   <cacheSource type="worksheet">
-    <worksheetSource ref="A1:J1048576" sheet="RawData"/>
+    <worksheetSource ref="B1:L1048576" sheet="RawData"/>
   </cacheSource>
   <cacheFields count="10">
     <cacheField name="날짜" numFmtId="0">
@@ -582,6 +869,68 @@
 </pivotCacheDefinition>
 </file>
 
+<file path=xl/pivotCache/pivotCacheDefinition2.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1" refreshedBy="User" refreshedDate="45799.058131712962" createdVersion="5" refreshedVersion="5" minRefreshableVersion="3" recordCount="1">
+  <cacheSource type="worksheet">
+    <worksheetSource ref="A1:N1048576" sheet="RawData"/>
+  </cacheSource>
+  <cacheFields count="13">
+    <cacheField name="날짜" numFmtId="0">
+      <sharedItems containsNonDate="0" containsString="0" containsBlank="1" count="1">
+        <m/>
+      </sharedItems>
+    </cacheField>
+    <cacheField name="종류" numFmtId="0">
+      <sharedItems containsNonDate="0" containsString="0" containsBlank="1" count="1">
+        <m/>
+      </sharedItems>
+    </cacheField>
+    <cacheField name="0. Site" numFmtId="0">
+      <sharedItems containsNonDate="0" containsString="0" containsBlank="1" count="1">
+        <m/>
+      </sharedItems>
+    </cacheField>
+    <cacheField name="1. 호기" numFmtId="0">
+      <sharedItems containsNonDate="0" containsString="0" containsBlank="1" count="1">
+        <m/>
+      </sharedItems>
+    </cacheField>
+    <cacheField name="2-1. Machine" numFmtId="0">
+      <sharedItems containsNonDate="0" containsString="0" containsBlank="1"/>
+    </cacheField>
+    <cacheField name="2-2. Unit" numFmtId="0">
+      <sharedItems containsNonDate="0" containsString="0" containsBlank="1"/>
+    </cacheField>
+    <cacheField name="2-3. Assy" numFmtId="0">
+      <sharedItems containsNonDate="0" containsString="0" containsBlank="1"/>
+    </cacheField>
+    <cacheField name="3-1. 발생시간" numFmtId="0">
+      <sharedItems containsNonDate="0" containsString="0" containsBlank="1"/>
+    </cacheField>
+    <cacheField name="3-2. 조치완료" numFmtId="0">
+      <sharedItems containsNonDate="0" containsString="0" containsBlank="1"/>
+    </cacheField>
+    <cacheField name="4. 작업자" numFmtId="0">
+      <sharedItems containsNonDate="0" containsString="0" containsBlank="1"/>
+    </cacheField>
+    <cacheField name="5. 현상" numFmtId="0">
+      <sharedItems containsNonDate="0" containsString="0" containsBlank="1"/>
+    </cacheField>
+    <cacheField name="6. 원인" numFmtId="0">
+      <sharedItems containsNonDate="0" containsString="0" containsBlank="1"/>
+    </cacheField>
+    <cacheField name="7. 조치" numFmtId="0">
+      <sharedItems containsNonDate="0" containsString="0" containsBlank="1"/>
+    </cacheField>
+  </cacheFields>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{725AE2AE-9491-48be-B2B4-4EB974FC3084}">
+      <x14:pivotCacheDefinition/>
+    </ext>
+  </extLst>
+</pivotCacheDefinition>
+</file>
+
 <file path=xl/pivotCache/pivotCacheRecords1.xml><?xml version="1.0" encoding="utf-8"?>
 <pivotCacheRecords xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" count="281">
   <r>
@@ -3949,6 +4298,26 @@
     <m/>
     <x v="0"/>
     <x v="0"/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+  </r>
+</pivotCacheRecords>
+</file>
+
+<file path=xl/pivotCache/pivotCacheRecords2.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotCacheRecords xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" count="1">
+  <r>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="0"/>
+    <m/>
+    <m/>
+    <m/>
     <m/>
     <m/>
     <m/>
@@ -3960,106 +4329,47 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="피벗 테이블1" cacheId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="값" updatedVersion="5" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="5" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
-  <location ref="A1:C4" firstHeaderRow="1" firstDataRow="2" firstDataCol="1"/>
-  <pivotFields count="10">
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField axis="axisCol" showAll="0">
-      <items count="8">
-        <item m="1" x="6"/>
-        <item m="1" x="5"/>
-        <item m="1" x="4"/>
-        <item m="1" x="3"/>
-        <item m="1" x="2"/>
-        <item m="1" x="1"/>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="피벗 테이블1" cacheId="12" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="값" updatedVersion="5" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="5" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
+  <location ref="A3:C6" firstHeaderRow="1" firstDataRow="2" firstDataCol="1" rowPageCount="1" colPageCount="1"/>
+  <pivotFields count="13">
+    <pivotField showAll="0">
+      <items count="2">
         <item x="0"/>
         <item t="default"/>
       </items>
     </pivotField>
-    <pivotField axis="axisRow" showAll="0">
-      <items count="66">
-        <item m="1" x="6"/>
-        <item m="1" x="20"/>
-        <item m="1" x="63"/>
-        <item m="1" x="19"/>
-        <item m="1" x="59"/>
-        <item m="1" x="2"/>
-        <item m="1" x="43"/>
-        <item m="1" x="22"/>
-        <item m="1" x="13"/>
-        <item m="1" x="44"/>
-        <item m="1" x="58"/>
-        <item m="1" x="51"/>
-        <item m="1" x="52"/>
-        <item m="1" x="36"/>
-        <item m="1" x="56"/>
-        <item m="1" x="27"/>
-        <item m="1" x="34"/>
-        <item m="1" x="45"/>
-        <item m="1" x="53"/>
-        <item m="1" x="42"/>
-        <item m="1" x="21"/>
-        <item m="1" x="3"/>
-        <item m="1" x="18"/>
-        <item m="1" x="15"/>
-        <item m="1" x="38"/>
-        <item m="1" x="12"/>
-        <item m="1" x="35"/>
-        <item m="1" x="14"/>
-        <item m="1" x="17"/>
-        <item m="1" x="49"/>
-        <item m="1" x="10"/>
-        <item m="1" x="28"/>
-        <item m="1" x="23"/>
-        <item m="1" x="8"/>
-        <item m="1" x="1"/>
-        <item m="1" x="9"/>
-        <item m="1" x="39"/>
-        <item m="1" x="5"/>
-        <item m="1" x="7"/>
-        <item m="1" x="41"/>
-        <item m="1" x="24"/>
-        <item m="1" x="32"/>
-        <item m="1" x="4"/>
-        <item m="1" x="61"/>
-        <item m="1" x="64"/>
-        <item m="1" x="57"/>
-        <item m="1" x="33"/>
-        <item m="1" x="26"/>
-        <item m="1" x="40"/>
-        <item m="1" x="37"/>
-        <item m="1" x="11"/>
-        <item m="1" x="50"/>
-        <item m="1" x="54"/>
-        <item m="1" x="16"/>
-        <item m="1" x="48"/>
-        <item m="1" x="25"/>
-        <item m="1" x="30"/>
-        <item m="1" x="47"/>
-        <item m="1" x="29"/>
-        <item m="1" x="31"/>
-        <item m="1" x="60"/>
-        <item m="1" x="62"/>
-        <item m="1" x="55"/>
-        <item m="1" x="46"/>
+    <pivotField axis="axisPage" showAll="0">
+      <items count="2">
         <item x="0"/>
         <item t="default"/>
       </items>
     </pivotField>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField dataField="1" showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
+    <pivotField axis="axisCol" showAll="0" defaultSubtotal="0">
+      <items count="1">
+        <item x="0"/>
+      </items>
+    </pivotField>
+    <pivotField axis="axisRow" showAll="0" defaultSubtotal="0">
+      <items count="1">
+        <item x="0"/>
+      </items>
+    </pivotField>
+    <pivotField showAll="0" defaultSubtotal="0"/>
+    <pivotField showAll="0" defaultSubtotal="0"/>
+    <pivotField showAll="0" defaultSubtotal="0"/>
+    <pivotField showAll="0" defaultSubtotal="0"/>
+    <pivotField showAll="0" defaultSubtotal="0"/>
+    <pivotField showAll="0" defaultSubtotal="0"/>
+    <pivotField showAll="0" defaultSubtotal="0"/>
+    <pivotField showAll="0" defaultSubtotal="0"/>
+    <pivotField showAll="0" defaultSubtotal="0"/>
   </pivotFields>
   <rowFields count="1">
     <field x="3"/>
   </rowFields>
   <rowItems count="2">
     <i>
-      <x v="64"/>
+      <x/>
     </i>
     <i t="grand">
       <x/>
@@ -4070,116 +4380,21 @@
   </colFields>
   <colItems count="2">
     <i>
-      <x v="6"/>
+      <x/>
     </i>
     <i t="grand">
       <x/>
     </i>
   </colItems>
-  <dataFields count="1">
-    <dataField name="합계 : 처리시간(분)" fld="6" baseField="3" baseItem="0"/>
-  </dataFields>
-  <formats count="6">
-    <format dxfId="26">
+  <pageFields count="1">
+    <pageField fld="1" hier="-1"/>
+  </pageFields>
+  <formats count="2">
+    <format dxfId="38">
       <pivotArea outline="0" collapsedLevelsAreSubtotals="1" fieldPosition="0"/>
     </format>
-    <format dxfId="25">
-      <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
-        <references count="1">
-          <reference field="3" count="50">
-            <x v="0"/>
-            <x v="1"/>
-            <x v="2"/>
-            <x v="3"/>
-            <x v="4"/>
-            <x v="5"/>
-            <x v="6"/>
-            <x v="7"/>
-            <x v="8"/>
-            <x v="9"/>
-            <x v="10"/>
-            <x v="11"/>
-            <x v="12"/>
-            <x v="13"/>
-            <x v="14"/>
-            <x v="15"/>
-            <x v="16"/>
-            <x v="17"/>
-            <x v="18"/>
-            <x v="19"/>
-            <x v="20"/>
-            <x v="21"/>
-            <x v="22"/>
-            <x v="23"/>
-            <x v="24"/>
-            <x v="25"/>
-            <x v="26"/>
-            <x v="27"/>
-            <x v="28"/>
-            <x v="29"/>
-            <x v="30"/>
-            <x v="31"/>
-            <x v="32"/>
-            <x v="33"/>
-            <x v="34"/>
-            <x v="35"/>
-            <x v="36"/>
-            <x v="37"/>
-            <x v="38"/>
-            <x v="39"/>
-            <x v="40"/>
-            <x v="41"/>
-            <x v="42"/>
-            <x v="43"/>
-            <x v="44"/>
-            <x v="45"/>
-            <x v="46"/>
-            <x v="47"/>
-            <x v="48"/>
-            <x v="49"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </format>
-    <format dxfId="24">
-      <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
-        <references count="1">
-          <reference field="3" count="15">
-            <x v="50"/>
-            <x v="51"/>
-            <x v="52"/>
-            <x v="53"/>
-            <x v="54"/>
-            <x v="55"/>
-            <x v="56"/>
-            <x v="57"/>
-            <x v="58"/>
-            <x v="59"/>
-            <x v="60"/>
-            <x v="61"/>
-            <x v="62"/>
-            <x v="63"/>
-            <x v="64"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </format>
-    <format dxfId="23">
+    <format dxfId="37">
       <pivotArea dataOnly="0" labelOnly="1" grandRow="1" outline="0" fieldPosition="0"/>
-    </format>
-    <format dxfId="22">
-      <pivotArea collapsedLevelsAreSubtotals="1" fieldPosition="0">
-        <references count="1">
-          <reference field="3" count="0"/>
-        </references>
-      </pivotArea>
-    </format>
-    <format dxfId="21">
-      <pivotArea collapsedLevelsAreSubtotals="1" fieldPosition="0">
-        <references count="1">
-          <reference field="3" count="0"/>
-        </references>
-      </pivotArea>
     </format>
   </formats>
   <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
@@ -4192,7 +4407,7 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable2.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="피벗 테이블2" cacheId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="값" updatedVersion="5" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="5" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="피벗 테이블2" cacheId="7" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="값" updatedVersion="5" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="5" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
   <location ref="A1:C4" firstHeaderRow="1" firstDataRow="2" firstDataCol="1"/>
   <pivotFields count="10">
     <pivotField showAll="0"/>
@@ -4312,13 +4527,13 @@
     <dataField name="개수 : 현상" fld="8" subtotal="count" baseField="0" baseItem="0"/>
   </dataFields>
   <formats count="21">
-    <format dxfId="20">
+    <format dxfId="36">
       <pivotArea type="all" dataOnly="0" outline="0" fieldPosition="0"/>
     </format>
-    <format dxfId="19">
+    <format dxfId="35">
       <pivotArea outline="0" collapsedLevelsAreSubtotals="1" fieldPosition="0"/>
     </format>
-    <format dxfId="18">
+    <format dxfId="34">
       <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
         <references count="1">
           <reference field="3" count="50">
@@ -4376,7 +4591,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="17">
+    <format dxfId="33">
       <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
         <references count="1">
           <reference field="3" count="15">
@@ -4399,26 +4614,26 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="16">
+    <format dxfId="32">
       <pivotArea dataOnly="0" labelOnly="1" grandRow="1" outline="0" fieldPosition="0"/>
     </format>
-    <format dxfId="15">
+    <format dxfId="31">
       <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
         <references count="1">
           <reference field="2" count="0"/>
         </references>
       </pivotArea>
     </format>
-    <format dxfId="14">
+    <format dxfId="30">
       <pivotArea dataOnly="0" labelOnly="1" grandCol="1" outline="0" fieldPosition="0"/>
     </format>
-    <format dxfId="13">
+    <format dxfId="29">
       <pivotArea type="all" dataOnly="0" outline="0" fieldPosition="0"/>
     </format>
-    <format dxfId="12">
+    <format dxfId="28">
       <pivotArea outline="0" collapsedLevelsAreSubtotals="1" fieldPosition="0"/>
     </format>
-    <format dxfId="11">
+    <format dxfId="27">
       <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
         <references count="1">
           <reference field="3" count="50">
@@ -4476,7 +4691,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="10">
+    <format dxfId="26">
       <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
         <references count="1">
           <reference field="3" count="15">
@@ -4499,26 +4714,26 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="9">
+    <format dxfId="25">
       <pivotArea dataOnly="0" labelOnly="1" grandRow="1" outline="0" fieldPosition="0"/>
     </format>
-    <format dxfId="8">
+    <format dxfId="24">
       <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
         <references count="1">
           <reference field="2" count="0"/>
         </references>
       </pivotArea>
     </format>
-    <format dxfId="7">
+    <format dxfId="23">
       <pivotArea dataOnly="0" labelOnly="1" grandCol="1" outline="0" fieldPosition="0"/>
     </format>
-    <format dxfId="6">
+    <format dxfId="22">
       <pivotArea type="all" dataOnly="0" outline="0" fieldPosition="0"/>
     </format>
-    <format dxfId="5">
+    <format dxfId="21">
       <pivotArea outline="0" collapsedLevelsAreSubtotals="1" fieldPosition="0"/>
     </format>
-    <format dxfId="4">
+    <format dxfId="20">
       <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
         <references count="1">
           <reference field="3" count="50">
@@ -4576,7 +4791,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="3">
+    <format dxfId="19">
       <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
         <references count="1">
           <reference field="3" count="15">
@@ -4599,17 +4814,17 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="2">
+    <format dxfId="18">
       <pivotArea dataOnly="0" labelOnly="1" grandRow="1" outline="0" fieldPosition="0"/>
     </format>
-    <format dxfId="1">
+    <format dxfId="17">
       <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
         <references count="1">
           <reference field="2" count="0"/>
         </references>
       </pivotArea>
     </format>
-    <format dxfId="0">
+    <format dxfId="16">
       <pivotArea dataOnly="0" labelOnly="1" grandCol="1" outline="0" fieldPosition="0"/>
     </format>
   </formats>
@@ -4907,44 +5122,65 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:J1"/>
+  <dimension ref="A1:N1"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J26" sqref="J26"/>
+      <selection activeCell="H16" sqref="H16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="4" max="4" width="11.875" customWidth="1"/>
+    <col min="5" max="7" width="20.625" customWidth="1"/>
+    <col min="8" max="10" width="15.625" customWidth="1"/>
+    <col min="11" max="11" width="16.625" customWidth="1"/>
+    <col min="12" max="12" width="11.5" customWidth="1"/>
+    <col min="13" max="13" width="17.625" customWidth="1"/>
+    <col min="14" max="14" width="22.625" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>0</v>
+        <v>17</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>1</v>
+        <v>16</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>9</v>
+        <v>20</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="N1" s="1" t="s">
+        <v>15</v>
       </c>
     </row>
   </sheetData>
@@ -4955,16 +5191,13 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C4"/>
+  <dimension ref="A1:C6"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F4" sqref="F4"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="18.75" customWidth="1"/>
-    <col min="2" max="2" width="11.875" bestFit="1" customWidth="1"/>
+    <col min="1" max="2" width="11.875" customWidth="1"/>
     <col min="3" max="3" width="7.375" bestFit="1" customWidth="1"/>
     <col min="4" max="5" width="5.875" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="6.25" bestFit="1" customWidth="1"/>
@@ -4975,36 +5208,41 @@
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1" s="2" t="s">
-        <v>14</v>
+        <v>18</v>
       </c>
-      <c r="B1" s="2" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A2" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="B2" t="s">
-        <v>11</v>
-      </c>
-      <c r="C2" t="s">
-        <v>12</v>
+      <c r="B1" t="s">
+        <v>19</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A3" s="3" t="s">
-        <v>11</v>
+      <c r="B3" s="2" t="s">
+        <v>3</v>
       </c>
-      <c r="B3" s="5"/>
-      <c r="C3" s="5"/>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A4" s="3" t="s">
-        <v>12</v>
+      <c r="A4" s="2" t="s">
+        <v>0</v>
       </c>
-      <c r="B4" s="4"/>
-      <c r="C4" s="4"/>
+      <c r="B4" t="s">
+        <v>1</v>
+      </c>
+      <c r="C4" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A5" s="8" t="s">
+        <v>1</v>
+      </c>
+      <c r="B5" s="7"/>
+      <c r="C5" s="7"/>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A6" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="B6" s="7"/>
+      <c r="C6" s="7"/>
     </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
@@ -5032,38 +5270,38 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A1" s="6" t="s">
-        <v>15</v>
+      <c r="A1" s="5" t="s">
+        <v>4</v>
       </c>
-      <c r="B1" s="6" t="s">
-        <v>13</v>
+      <c r="B1" s="5" t="s">
+        <v>3</v>
       </c>
-      <c r="C1" s="7"/>
+      <c r="C1" s="6"/>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A2" s="6" t="s">
-        <v>10</v>
+      <c r="A2" s="5" t="s">
+        <v>0</v>
       </c>
-      <c r="B2" s="7" t="s">
-        <v>11</v>
+      <c r="B2" s="6" t="s">
+        <v>1</v>
       </c>
-      <c r="C2" s="7" t="s">
-        <v>12</v>
+      <c r="C2" s="6" t="s">
+        <v>2</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A3" s="7" t="s">
-        <v>11</v>
+      <c r="A3" s="6" t="s">
+        <v>1</v>
       </c>
-      <c r="B3" s="5"/>
-      <c r="C3" s="5"/>
+      <c r="B3" s="4"/>
+      <c r="C3" s="4"/>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A4" s="7" t="s">
-        <v>12</v>
+      <c r="A4" s="6" t="s">
+        <v>2</v>
       </c>
-      <c r="B4" s="5"/>
-      <c r="C4" s="5"/>
+      <c r="B4" s="4"/>
+      <c r="C4" s="4"/>
     </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>

--- a/template.xlsx
+++ b/template.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="19170" windowHeight="5610"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="19170" windowHeight="5610" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="RawData" sheetId="1" r:id="rId1"/>
@@ -18,14 +18,14 @@
   </sheets>
   <calcPr calcId="0"/>
   <pivotCaches>
-    <pivotCache cacheId="7" r:id="rId4"/>
-    <pivotCache cacheId="12" r:id="rId5"/>
+    <pivotCache cacheId="24" r:id="rId4"/>
+    <pivotCache cacheId="35" r:id="rId5"/>
   </pivotCaches>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="22">
   <si>
     <t>행 레이블</t>
   </si>
@@ -93,6 +93,9 @@
     <t>3-3. 조치 시간(분)</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
+  <si>
+    <t>합계 : 3-3. 조치 시간(분)</t>
+  </si>
 </sst>
 </file>
 
@@ -156,7 +159,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
@@ -174,15 +177,21 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" indent="2"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="표준" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="39">
+  <dxfs count="45">
     <dxf>
       <border>
         <left style="thin">
@@ -492,10 +501,180 @@
       </border>
     </dxf>
     <dxf>
-      <alignment horizontal="center" readingOrder="0"/>
+      <border>
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical style="thin">
+          <color indexed="64"/>
+        </vertical>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
     </dxf>
     <dxf>
-      <alignment vertical="center" readingOrder="0"/>
+      <border>
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical style="thin">
+          <color indexed="64"/>
+        </vertical>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical style="thin">
+          <color indexed="64"/>
+        </vertical>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical style="thin">
+          <color indexed="64"/>
+        </vertical>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical style="thin">
+          <color indexed="64"/>
+        </vertical>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical style="thin">
+          <color indexed="64"/>
+        </vertical>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical style="thin">
+          <color indexed="64"/>
+        </vertical>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical style="thin">
+          <color indexed="64"/>
+        </vertical>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
     </dxf>
     <dxf>
       <alignment vertical="center" readingOrder="0"/>
@@ -870,15 +1049,13 @@
 </file>
 
 <file path=xl/pivotCache/pivotCacheDefinition2.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1" refreshedBy="User" refreshedDate="45799.058131712962" createdVersion="5" refreshedVersion="5" minRefreshableVersion="3" recordCount="1">
+<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1" refreshedBy="User" refreshedDate="45799.065381712964" createdVersion="5" refreshedVersion="5" minRefreshableVersion="3" recordCount="1">
   <cacheSource type="worksheet">
     <worksheetSource ref="A1:N1048576" sheet="RawData"/>
   </cacheSource>
-  <cacheFields count="13">
+  <cacheFields count="14">
     <cacheField name="날짜" numFmtId="0">
-      <sharedItems containsNonDate="0" containsString="0" containsBlank="1" count="1">
-        <m/>
-      </sharedItems>
+      <sharedItems containsNonDate="0" containsString="0" containsBlank="1"/>
     </cacheField>
     <cacheField name="종류" numFmtId="0">
       <sharedItems containsNonDate="0" containsString="0" containsBlank="1" count="1">
@@ -886,9 +1063,7 @@
       </sharedItems>
     </cacheField>
     <cacheField name="0. Site" numFmtId="0">
-      <sharedItems containsNonDate="0" containsString="0" containsBlank="1" count="1">
-        <m/>
-      </sharedItems>
+      <sharedItems containsNonDate="0" containsString="0" containsBlank="1"/>
     </cacheField>
     <cacheField name="1. 호기" numFmtId="0">
       <sharedItems containsNonDate="0" containsString="0" containsBlank="1" count="1">
@@ -896,18 +1071,27 @@
       </sharedItems>
     </cacheField>
     <cacheField name="2-1. Machine" numFmtId="0">
-      <sharedItems containsNonDate="0" containsString="0" containsBlank="1"/>
+      <sharedItems containsNonDate="0" containsString="0" containsBlank="1" count="1">
+        <m/>
+      </sharedItems>
     </cacheField>
     <cacheField name="2-2. Unit" numFmtId="0">
-      <sharedItems containsNonDate="0" containsString="0" containsBlank="1"/>
+      <sharedItems containsNonDate="0" containsString="0" containsBlank="1" count="1">
+        <m/>
+      </sharedItems>
     </cacheField>
     <cacheField name="2-3. Assy" numFmtId="0">
-      <sharedItems containsNonDate="0" containsString="0" containsBlank="1"/>
+      <sharedItems containsNonDate="0" containsString="0" containsBlank="1" count="1">
+        <m/>
+      </sharedItems>
     </cacheField>
     <cacheField name="3-1. 발생시간" numFmtId="0">
       <sharedItems containsNonDate="0" containsString="0" containsBlank="1"/>
     </cacheField>
     <cacheField name="3-2. 조치완료" numFmtId="0">
+      <sharedItems containsNonDate="0" containsString="0" containsBlank="1"/>
+    </cacheField>
+    <cacheField name="3-3. 조치 시간(분)" numFmtId="0">
       <sharedItems containsNonDate="0" containsString="0" containsBlank="1"/>
     </cacheField>
     <cacheField name="4. 작업자" numFmtId="0">
@@ -4311,12 +4495,13 @@
 <file path=xl/pivotCache/pivotCacheRecords2.xml><?xml version="1.0" encoding="utf-8"?>
 <pivotCacheRecords xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" count="1">
   <r>
-    <x v="0"/>
-    <x v="0"/>
-    <x v="0"/>
-    <x v="0"/>
-    <m/>
-    <m/>
+    <m/>
+    <x v="0"/>
+    <m/>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="0"/>
     <m/>
     <m/>
     <m/>
@@ -4329,22 +4514,28 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="피벗 테이블1" cacheId="12" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="값" updatedVersion="5" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="5" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
-  <location ref="A3:C6" firstHeaderRow="1" firstDataRow="2" firstDataCol="1" rowPageCount="1" colPageCount="1"/>
-  <pivotFields count="13">
-    <pivotField showAll="0">
-      <items count="2">
-        <item x="0"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="피벗 테이블1" cacheId="35" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="값" updatedVersion="5" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="5" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
+  <location ref="A3:C8" firstHeaderRow="1" firstDataRow="2" firstDataCol="1" rowPageCount="1" colPageCount="1"/>
+  <pivotFields count="14">
+    <pivotField showAll="0"/>
     <pivotField axis="axisPage" showAll="0">
       <items count="2">
         <item x="0"/>
         <item t="default"/>
       </items>
     </pivotField>
+    <pivotField showAll="0" defaultSubtotal="0"/>
     <pivotField axis="axisCol" showAll="0" defaultSubtotal="0">
+      <items count="1">
+        <item x="0"/>
+      </items>
+    </pivotField>
+    <pivotField axis="axisRow" showAll="0" defaultSubtotal="0">
+      <items count="1">
+        <item x="0"/>
+      </items>
+    </pivotField>
+    <pivotField axis="axisRow" showAll="0" defaultSubtotal="0">
       <items count="1">
         <item x="0"/>
       </items>
@@ -4356,19 +4547,25 @@
     </pivotField>
     <pivotField showAll="0" defaultSubtotal="0"/>
     <pivotField showAll="0" defaultSubtotal="0"/>
-    <pivotField showAll="0" defaultSubtotal="0"/>
-    <pivotField showAll="0" defaultSubtotal="0"/>
-    <pivotField showAll="0" defaultSubtotal="0"/>
+    <pivotField dataField="1" showAll="0" defaultSubtotal="0"/>
     <pivotField showAll="0" defaultSubtotal="0"/>
     <pivotField showAll="0" defaultSubtotal="0"/>
     <pivotField showAll="0" defaultSubtotal="0"/>
     <pivotField showAll="0" defaultSubtotal="0"/>
   </pivotFields>
-  <rowFields count="1">
-    <field x="3"/>
+  <rowFields count="3">
+    <field x="4"/>
+    <field x="5"/>
+    <field x="6"/>
   </rowFields>
-  <rowItems count="2">
+  <rowItems count="4">
     <i>
+      <x/>
+    </i>
+    <i r="1">
+      <x/>
+    </i>
+    <i r="2">
       <x/>
     </i>
     <i t="grand">
@@ -4376,7 +4573,7 @@
     </i>
   </rowItems>
   <colFields count="1">
-    <field x="2"/>
+    <field x="3"/>
   </colFields>
   <colItems count="2">
     <i>
@@ -4389,11 +4586,14 @@
   <pageFields count="1">
     <pageField fld="1" hier="-1"/>
   </pageFields>
+  <dataFields count="1">
+    <dataField name="합계 : 3-3. 조치 시간(분)" fld="9" baseField="4" baseItem="0"/>
+  </dataFields>
   <formats count="2">
-    <format dxfId="38">
+    <format dxfId="44">
       <pivotArea outline="0" collapsedLevelsAreSubtotals="1" fieldPosition="0"/>
     </format>
-    <format dxfId="37">
+    <format dxfId="43">
       <pivotArea dataOnly="0" labelOnly="1" grandRow="1" outline="0" fieldPosition="0"/>
     </format>
   </formats>
@@ -4407,7 +4607,7 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable2.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="피벗 테이블2" cacheId="7" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="값" updatedVersion="5" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="5" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="피벗 테이블2" cacheId="24" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="값" updatedVersion="5" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="5" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
   <location ref="A1:C4" firstHeaderRow="1" firstDataRow="2" firstDataCol="1"/>
   <pivotFields count="10">
     <pivotField showAll="0"/>
@@ -4527,13 +4727,13 @@
     <dataField name="개수 : 현상" fld="8" subtotal="count" baseField="0" baseItem="0"/>
   </dataFields>
   <formats count="21">
-    <format dxfId="36">
+    <format dxfId="42">
       <pivotArea type="all" dataOnly="0" outline="0" fieldPosition="0"/>
     </format>
-    <format dxfId="35">
+    <format dxfId="41">
       <pivotArea outline="0" collapsedLevelsAreSubtotals="1" fieldPosition="0"/>
     </format>
-    <format dxfId="34">
+    <format dxfId="40">
       <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
         <references count="1">
           <reference field="3" count="50">
@@ -4591,7 +4791,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="33">
+    <format dxfId="39">
       <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
         <references count="1">
           <reference field="3" count="15">
@@ -4614,26 +4814,26 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="32">
+    <format dxfId="38">
       <pivotArea dataOnly="0" labelOnly="1" grandRow="1" outline="0" fieldPosition="0"/>
     </format>
-    <format dxfId="31">
+    <format dxfId="37">
       <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
         <references count="1">
           <reference field="2" count="0"/>
         </references>
       </pivotArea>
     </format>
-    <format dxfId="30">
+    <format dxfId="36">
       <pivotArea dataOnly="0" labelOnly="1" grandCol="1" outline="0" fieldPosition="0"/>
     </format>
-    <format dxfId="29">
+    <format dxfId="35">
       <pivotArea type="all" dataOnly="0" outline="0" fieldPosition="0"/>
     </format>
-    <format dxfId="28">
+    <format dxfId="34">
       <pivotArea outline="0" collapsedLevelsAreSubtotals="1" fieldPosition="0"/>
     </format>
-    <format dxfId="27">
+    <format dxfId="33">
       <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
         <references count="1">
           <reference field="3" count="50">
@@ -4691,7 +4891,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="26">
+    <format dxfId="32">
       <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
         <references count="1">
           <reference field="3" count="15">
@@ -4714,26 +4914,26 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="25">
+    <format dxfId="31">
       <pivotArea dataOnly="0" labelOnly="1" grandRow="1" outline="0" fieldPosition="0"/>
     </format>
-    <format dxfId="24">
+    <format dxfId="30">
       <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
         <references count="1">
           <reference field="2" count="0"/>
         </references>
       </pivotArea>
     </format>
-    <format dxfId="23">
+    <format dxfId="29">
       <pivotArea dataOnly="0" labelOnly="1" grandCol="1" outline="0" fieldPosition="0"/>
     </format>
-    <format dxfId="22">
+    <format dxfId="28">
       <pivotArea type="all" dataOnly="0" outline="0" fieldPosition="0"/>
     </format>
-    <format dxfId="21">
+    <format dxfId="27">
       <pivotArea outline="0" collapsedLevelsAreSubtotals="1" fieldPosition="0"/>
     </format>
-    <format dxfId="20">
+    <format dxfId="26">
       <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
         <references count="1">
           <reference field="3" count="50">
@@ -4791,7 +4991,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="19">
+    <format dxfId="25">
       <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
         <references count="1">
           <reference field="3" count="15">
@@ -4814,17 +5014,17 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="18">
+    <format dxfId="24">
       <pivotArea dataOnly="0" labelOnly="1" grandRow="1" outline="0" fieldPosition="0"/>
     </format>
-    <format dxfId="17">
+    <format dxfId="23">
       <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
         <references count="1">
           <reference field="2" count="0"/>
         </references>
       </pivotArea>
     </format>
-    <format dxfId="16">
+    <format dxfId="22">
       <pivotArea dataOnly="0" labelOnly="1" grandCol="1" outline="0" fieldPosition="0"/>
     </format>
   </formats>
@@ -5124,8 +5324,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:N1"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H16" sqref="H16"/>
+    <sheetView topLeftCell="F1" workbookViewId="0">
+      <selection activeCell="H26" sqref="H26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -5191,13 +5391,16 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C6"/>
+  <dimension ref="A1:C8"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H8" sqref="H8"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="2" width="11.875" customWidth="1"/>
+    <col min="1" max="1" width="24" customWidth="1"/>
+    <col min="2" max="2" width="11.875" customWidth="1"/>
     <col min="3" max="3" width="7.375" bestFit="1" customWidth="1"/>
     <col min="4" max="5" width="5.875" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="6.25" bestFit="1" customWidth="1"/>
@@ -5215,6 +5418,9 @@
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A3" s="2" t="s">
+        <v>21</v>
+      </c>
       <c r="B3" s="2" t="s">
         <v>3</v>
       </c>
@@ -5231,18 +5437,32 @@
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A5" s="8" t="s">
+      <c r="A5" s="7" t="s">
         <v>1</v>
       </c>
-      <c r="B5" s="7"/>
-      <c r="C5" s="7"/>
+      <c r="B5" s="10"/>
+      <c r="C5" s="10"/>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A6" s="3" t="s">
+      <c r="A6" s="8" t="s">
+        <v>1</v>
+      </c>
+      <c r="B6" s="10"/>
+      <c r="C6" s="10"/>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A7" s="9" t="s">
+        <v>1</v>
+      </c>
+      <c r="B7" s="10"/>
+      <c r="C7" s="10"/>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A8" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="B6" s="7"/>
-      <c r="C6" s="7"/>
+      <c r="B8" s="10"/>
+      <c r="C8" s="10"/>
     </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>

--- a/template.xlsx
+++ b/template.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="29426"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\USER\python_for_desk\BM-PD_summary_all_site\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\업무\1. BMPD\BMPD_streamlit\새 폴더\BM-PD_summary_all_site\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E9A242C5-C1C9-4C2E-884B-453C8404D99A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="19170" windowHeight="5610"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="RawData" sheetId="1" r:id="rId1"/>
@@ -21,7 +22,7 @@
   </definedNames>
   <calcPr calcId="152511"/>
   <pivotCaches>
-    <pivotCache cacheId="197" r:id="rId4"/>
+    <pivotCache cacheId="0" r:id="rId4"/>
   </pivotCaches>
 </workbook>
 </file>
@@ -63,9 +64,6 @@
   </si>
   <si>
     <t>발생시간</t>
-  </si>
-  <si>
-    <t>조치완료시간</t>
   </si>
   <si>
     <t>조치 진행 시간(분)</t>
@@ -520,11 +518,15 @@
   <si>
     <t>합계 : 조치 진행 시간(분)</t>
   </si>
+  <si>
+    <t>조치완료</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="2">
     <numFmt numFmtId="176" formatCode="yyyy\-mm\-dd\ h:mm:ss"/>
     <numFmt numFmtId="177" formatCode="yyyy\-mm\-dd"/>
@@ -605,58 +607,14 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" indent="2"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="177" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="표준" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="6">
-    <dxf>
-      <border>
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical style="thin">
-          <color indexed="64"/>
-        </vertical>
-        <horizontal style="thin">
-          <color indexed="64"/>
-        </horizontal>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical style="thin">
-          <color indexed="64"/>
-        </vertical>
-        <horizontal style="thin">
-          <color indexed="64"/>
-        </horizontal>
-      </border>
-    </dxf>
+  <dxfs count="4">
     <dxf>
       <border>
         <left style="thin">
@@ -759,7 +717,7 @@
 </file>
 
 <file path=xl/pivotCache/pivotCacheDefinition1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1" refreshedBy="User" refreshedDate="45838.137498958335" createdVersion="5" refreshedVersion="5" minRefreshableVersion="3" recordCount="346">
+<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" r:id="rId1" refreshedBy="User" refreshedDate="45838.137498958335" createdVersion="5" refreshedVersion="5" minRefreshableVersion="3" recordCount="346" xr:uid="{00000000-000A-0000-FFFF-FFFFC5000000}">
   <cacheSource type="worksheet">
     <worksheetSource ref="A1:N1048576" sheet="RawData"/>
   </cacheSource>
@@ -6518,7 +6476,7 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="피벗 테이블1" cacheId="197" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="값" updatedVersion="5" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="5" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{00000000-0007-0000-0100-000000000000}" name="피벗 테이블1" cacheId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="값" updatedVersion="5" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="5" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
   <location ref="A4:V150" firstHeaderRow="1" firstDataRow="3" firstDataCol="1" rowPageCount="1" colPageCount="1"/>
   <pivotFields count="14">
     <pivotField axis="axisPage" showAll="0">
@@ -7228,10 +7186,10 @@
     <dataField name="개수 : 조치 진행 시간(분)" fld="8" subtotal="count" baseField="5" baseItem="13"/>
   </dataFields>
   <formats count="2">
-    <format dxfId="4">
+    <format dxfId="3">
       <pivotArea outline="0" collapsedLevelsAreSubtotals="1" fieldPosition="0"/>
     </format>
-    <format dxfId="5">
+    <format dxfId="2">
       <pivotArea dataOnly="0" labelOnly="1" grandRow="1" outline="0" fieldPosition="0"/>
     </format>
   </formats>
@@ -7240,12 +7198,15 @@
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
       <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" hideValuesRow="1"/>
     </ext>
+    <ext xmlns:xpdl="http://schemas.microsoft.com/office/spreadsheetml/2016/pivotdefaultlayout" uri="{747A6164-185A-40DC-8AA5-F01512510D54}">
+      <xpdl:pivotTableDefinition16/>
+    </ext>
   </extLst>
 </pivotTableDefinition>
 </file>
 
 <file path=xl/pivotTables/pivotTable2.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="피벗 테이블1" cacheId="197" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="값" updatedVersion="5" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="5" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{00000000-0007-0000-0200-000001000000}" name="피벗 테이블1" cacheId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="값" updatedVersion="5" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="5" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
   <location ref="A4:V150" firstHeaderRow="1" firstDataRow="3" firstDataCol="1" rowPageCount="1" colPageCount="1"/>
   <pivotFields count="14">
     <pivotField axis="axisPage" showAll="0">
@@ -7955,10 +7916,10 @@
     <dataField name="합계 : 조치 진행 시간(분)" fld="8" baseField="5" baseItem="67"/>
   </dataFields>
   <formats count="2">
-    <format dxfId="2">
+    <format dxfId="1">
       <pivotArea outline="0" collapsedLevelsAreSubtotals="1" fieldPosition="0"/>
     </format>
-    <format dxfId="3">
+    <format dxfId="0">
       <pivotArea dataOnly="0" labelOnly="1" grandRow="1" outline="0" fieldPosition="0"/>
     </format>
   </formats>
@@ -7966,6 +7927,9 @@
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
       <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" hideValuesRow="1"/>
+    </ext>
+    <ext xmlns:xpdl="http://schemas.microsoft.com/office/spreadsheetml/2016/pivotdefaultlayout" uri="{747A6164-185A-40DC-8AA5-F01512510D54}">
+      <xpdl:pivotTableDefinition16/>
     </ext>
   </extLst>
 </pivotTableDefinition>
@@ -8255,11 +8219,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:N346"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="M9" sqref="M9"/>
+      <selection activeCell="M14" sqref="M14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -8287,25 +8251,25 @@
         <v>11</v>
       </c>
       <c r="H1" s="1" t="s">
+        <v>163</v>
+      </c>
+      <c r="I1" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="J1" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="J1" s="1" t="s">
+      <c r="K1" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="K1" s="1" t="s">
+      <c r="L1" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="L1" s="1" t="s">
+      <c r="M1" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="M1" s="1" t="s">
+      <c r="N1" s="1" t="s">
         <v>17</v>
-      </c>
-      <c r="N1" s="1" t="s">
-        <v>18</v>
       </c>
     </row>
     <row r="2" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
@@ -10034,14 +9998,17 @@
       <c r="N346" s="9"/>
     </row>
   </sheetData>
-  <autoFilter ref="A1:N346"/>
+  <autoFilter ref="A1:N346" xr:uid="{00000000-0009-0000-0000-000000000000}"/>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <headerFooter>
+    <oddHeader>&amp;C&amp;"Aptos"&amp;12&amp;K000000 LGE Internal Use Only&amp;1#_x000D_</oddHeader>
+  </headerFooter>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A2:V150"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -10069,7 +10036,7 @@
     </row>
     <row r="4" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A4" s="2" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="B4" s="2" t="s">
         <v>3</v>
@@ -10077,10 +10044,10 @@
     </row>
     <row r="5" spans="1:22" x14ac:dyDescent="0.3">
       <c r="B5" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="K5" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="U5" t="s">
         <v>1</v>
@@ -10094,61 +10061,61 @@
         <v>0</v>
       </c>
       <c r="B6" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="C6" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="D6" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="E6" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="F6" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="G6" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="H6" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="I6" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="J6" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="K6" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="L6" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="M6" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="N6" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="O6" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="P6" t="s">
+        <v>116</v>
+      </c>
+      <c r="Q6" t="s">
         <v>117</v>
       </c>
-      <c r="Q6" t="s">
-        <v>118</v>
-      </c>
       <c r="R6" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="S6" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="T6" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="U6" t="s">
         <v>1</v>
@@ -10156,7 +10123,7 @@
     </row>
     <row r="7" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A7" s="4" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B7" s="7"/>
       <c r="C7" s="7"/>
@@ -10182,7 +10149,7 @@
     </row>
     <row r="8" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A8" s="5" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B8" s="7"/>
       <c r="C8" s="7"/>
@@ -10208,7 +10175,7 @@
     </row>
     <row r="9" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A9" s="6" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B9" s="7"/>
       <c r="C9" s="7"/>
@@ -10240,7 +10207,7 @@
     </row>
     <row r="10" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A10" s="5" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B10" s="7"/>
       <c r="C10" s="7"/>
@@ -10266,7 +10233,7 @@
     </row>
     <row r="11" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A11" s="6" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="B11" s="7"/>
       <c r="C11" s="7"/>
@@ -10296,7 +10263,7 @@
     </row>
     <row r="12" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A12" s="6" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B12" s="7"/>
       <c r="C12" s="7"/>
@@ -10336,7 +10303,7 @@
     </row>
     <row r="13" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A13" s="6" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="B13" s="7"/>
       <c r="C13" s="7"/>
@@ -10366,7 +10333,7 @@
     </row>
     <row r="14" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A14" s="5" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B14" s="7"/>
       <c r="C14" s="7"/>
@@ -10392,7 +10359,7 @@
     </row>
     <row r="15" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A15" s="6" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="B15" s="7"/>
       <c r="C15" s="7"/>
@@ -10424,7 +10391,7 @@
     </row>
     <row r="16" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A16" s="6" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B16" s="7"/>
       <c r="C16" s="7"/>
@@ -10458,7 +10425,7 @@
     </row>
     <row r="17" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A17" s="5" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B17" s="7"/>
       <c r="C17" s="7"/>
@@ -10484,7 +10451,7 @@
     </row>
     <row r="18" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A18" s="6" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B18" s="7"/>
       <c r="C18" s="7"/>
@@ -10514,7 +10481,7 @@
     </row>
     <row r="19" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A19" s="6" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="B19" s="7"/>
       <c r="C19" s="7"/>
@@ -10544,7 +10511,7 @@
     </row>
     <row r="20" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A20" s="6" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B20" s="7"/>
       <c r="C20" s="7"/>
@@ -10576,7 +10543,7 @@
     </row>
     <row r="21" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A21" s="6" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="B21" s="7"/>
       <c r="C21" s="7"/>
@@ -10606,7 +10573,7 @@
     </row>
     <row r="22" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A22" s="5" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="B22" s="7"/>
       <c r="C22" s="7"/>
@@ -10632,7 +10599,7 @@
     </row>
     <row r="23" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A23" s="6" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="B23" s="7"/>
       <c r="C23" s="7"/>
@@ -10662,7 +10629,7 @@
     </row>
     <row r="24" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A24" s="6" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="B24" s="7"/>
       <c r="C24" s="7"/>
@@ -10692,7 +10659,7 @@
     </row>
     <row r="25" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A25" s="6" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B25" s="7"/>
       <c r="C25" s="7"/>
@@ -10724,7 +10691,7 @@
     </row>
     <row r="26" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A26" s="5" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="B26" s="7"/>
       <c r="C26" s="7"/>
@@ -10750,7 +10717,7 @@
     </row>
     <row r="27" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A27" s="6" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="B27" s="7"/>
       <c r="C27" s="7"/>
@@ -10780,7 +10747,7 @@
     </row>
     <row r="28" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A28" s="4" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B28" s="7"/>
       <c r="C28" s="7"/>
@@ -10806,7 +10773,7 @@
     </row>
     <row r="29" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A29" s="5" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B29" s="7"/>
       <c r="C29" s="7"/>
@@ -10832,7 +10799,7 @@
     </row>
     <row r="30" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A30" s="6" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="B30" s="7"/>
       <c r="C30" s="7"/>
@@ -10862,7 +10829,7 @@
     </row>
     <row r="31" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A31" s="6" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B31" s="7"/>
       <c r="C31" s="7"/>
@@ -10894,7 +10861,7 @@
     </row>
     <row r="32" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A32" s="6" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="B32" s="7"/>
       <c r="C32" s="7"/>
@@ -10928,7 +10895,7 @@
     </row>
     <row r="33" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A33" s="6" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B33" s="7"/>
       <c r="C33" s="7"/>
@@ -10958,7 +10925,7 @@
     </row>
     <row r="34" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A34" s="6" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="B34" s="7"/>
       <c r="C34" s="7"/>
@@ -10992,7 +10959,7 @@
     </row>
     <row r="35" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A35" s="6" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="B35" s="7"/>
       <c r="C35" s="7"/>
@@ -11022,7 +10989,7 @@
     </row>
     <row r="36" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A36" s="6" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="B36" s="7"/>
       <c r="C36" s="7"/>
@@ -11052,7 +11019,7 @@
     </row>
     <row r="37" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A37" s="6" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="B37" s="7"/>
       <c r="C37" s="7"/>
@@ -11084,7 +11051,7 @@
     </row>
     <row r="38" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A38" s="6" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="B38" s="7"/>
       <c r="C38" s="7"/>
@@ -11118,7 +11085,7 @@
     </row>
     <row r="39" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A39" s="6" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="B39" s="7"/>
       <c r="C39" s="7"/>
@@ -11150,7 +11117,7 @@
     </row>
     <row r="40" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A40" s="6" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="B40" s="7"/>
       <c r="C40" s="7"/>
@@ -11182,7 +11149,7 @@
     </row>
     <row r="41" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A41" s="6" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="B41" s="7"/>
       <c r="C41" s="7"/>
@@ -11216,7 +11183,7 @@
     </row>
     <row r="42" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A42" s="6" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="B42" s="7"/>
       <c r="C42" s="7"/>
@@ -11252,7 +11219,7 @@
     </row>
     <row r="43" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A43" s="6" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="B43" s="7"/>
       <c r="C43" s="7"/>
@@ -11288,7 +11255,7 @@
     </row>
     <row r="44" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A44" s="6" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="B44" s="7"/>
       <c r="C44" s="7"/>
@@ -11318,7 +11285,7 @@
     </row>
     <row r="45" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A45" s="6" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="B45" s="7"/>
       <c r="C45" s="7"/>
@@ -11356,7 +11323,7 @@
     </row>
     <row r="46" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A46" s="4" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B46" s="7"/>
       <c r="C46" s="7"/>
@@ -11382,7 +11349,7 @@
     </row>
     <row r="47" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A47" s="5" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B47" s="7"/>
       <c r="C47" s="7"/>
@@ -11408,7 +11375,7 @@
     </row>
     <row r="48" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A48" s="6" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B48" s="7"/>
       <c r="C48" s="7"/>
@@ -11446,7 +11413,7 @@
     </row>
     <row r="49" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A49" s="5" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="B49" s="7"/>
       <c r="C49" s="7"/>
@@ -11472,7 +11439,7 @@
     </row>
     <row r="50" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A50" s="6" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="B50" s="7"/>
       <c r="C50" s="7"/>
@@ -11504,7 +11471,7 @@
     </row>
     <row r="51" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A51" s="5" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="B51" s="7"/>
       <c r="C51" s="7"/>
@@ -11530,7 +11497,7 @@
     </row>
     <row r="52" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A52" s="6" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="B52" s="7"/>
       <c r="C52" s="7"/>
@@ -11560,7 +11527,7 @@
     </row>
     <row r="53" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A53" s="5" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B53" s="7"/>
       <c r="C53" s="7"/>
@@ -11586,7 +11553,7 @@
     </row>
     <row r="54" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A54" s="6" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B54" s="7"/>
       <c r="C54" s="7"/>
@@ -11624,7 +11591,7 @@
     </row>
     <row r="55" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A55" s="5" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="B55" s="7"/>
       <c r="C55" s="7"/>
@@ -11650,7 +11617,7 @@
     </row>
     <row r="56" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A56" s="6" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="B56" s="7"/>
       <c r="C56" s="7"/>
@@ -11680,7 +11647,7 @@
     </row>
     <row r="57" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A57" s="6" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="B57" s="7"/>
       <c r="C57" s="7"/>
@@ -11710,7 +11677,7 @@
     </row>
     <row r="58" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A58" s="6" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="B58" s="7"/>
       <c r="C58" s="7"/>
@@ -11742,7 +11709,7 @@
     </row>
     <row r="59" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A59" s="5" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B59" s="7"/>
       <c r="C59" s="7"/>
@@ -11768,7 +11735,7 @@
     </row>
     <row r="60" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A60" s="6" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="B60" s="7"/>
       <c r="C60" s="7"/>
@@ -11798,7 +11765,7 @@
     </row>
     <row r="61" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A61" s="6" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B61" s="7"/>
       <c r="C61" s="7"/>
@@ -11828,7 +11795,7 @@
     </row>
     <row r="62" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A62" s="6" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="B62" s="7"/>
       <c r="C62" s="7"/>
@@ -11858,7 +11825,7 @@
     </row>
     <row r="63" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A63" s="6" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="B63" s="7"/>
       <c r="C63" s="7"/>
@@ -11888,7 +11855,7 @@
     </row>
     <row r="64" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A64" s="5" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="B64" s="7"/>
       <c r="C64" s="7"/>
@@ -11914,7 +11881,7 @@
     </row>
     <row r="65" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A65" s="6" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="B65" s="7"/>
       <c r="C65" s="7"/>
@@ -11944,7 +11911,7 @@
     </row>
     <row r="66" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A66" s="6" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="B66" s="7"/>
       <c r="C66" s="7"/>
@@ -11978,7 +11945,7 @@
     </row>
     <row r="67" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A67" s="4" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B67" s="7"/>
       <c r="C67" s="7"/>
@@ -12004,7 +11971,7 @@
     </row>
     <row r="68" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A68" s="5" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B68" s="7"/>
       <c r="C68" s="7"/>
@@ -12030,7 +11997,7 @@
     </row>
     <row r="69" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A69" s="6" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B69" s="7"/>
       <c r="C69" s="7"/>
@@ -12062,7 +12029,7 @@
     </row>
     <row r="70" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A70" s="5" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B70" s="7"/>
       <c r="C70" s="7"/>
@@ -12088,7 +12055,7 @@
     </row>
     <row r="71" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A71" s="6" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="B71" s="7"/>
       <c r="C71" s="7"/>
@@ -12122,7 +12089,7 @@
     </row>
     <row r="72" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A72" s="6" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B72" s="7"/>
       <c r="C72" s="7"/>
@@ -12156,7 +12123,7 @@
     </row>
     <row r="73" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A73" s="6" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="B73" s="7"/>
       <c r="C73" s="7"/>
@@ -12188,7 +12155,7 @@
     </row>
     <row r="74" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A74" s="6" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="B74" s="7"/>
       <c r="C74" s="7"/>
@@ -12220,7 +12187,7 @@
     </row>
     <row r="75" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A75" s="5" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B75" s="7"/>
       <c r="C75" s="7"/>
@@ -12246,7 +12213,7 @@
     </row>
     <row r="76" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A76" s="6" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="B76" s="7"/>
       <c r="C76" s="7"/>
@@ -12276,7 +12243,7 @@
     </row>
     <row r="77" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A77" s="6" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="B77" s="7"/>
       <c r="C77" s="7"/>
@@ -12314,7 +12281,7 @@
     </row>
     <row r="78" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A78" s="6" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="B78" s="7"/>
       <c r="C78" s="7"/>
@@ -12348,7 +12315,7 @@
     </row>
     <row r="79" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A79" s="6" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B79" s="7"/>
       <c r="C79" s="7"/>
@@ -12386,7 +12353,7 @@
     </row>
     <row r="80" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A80" s="5" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="B80" s="7"/>
       <c r="C80" s="7"/>
@@ -12412,7 +12379,7 @@
     </row>
     <row r="81" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A81" s="6" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="B81" s="7"/>
       <c r="C81" s="7"/>
@@ -12442,7 +12409,7 @@
     </row>
     <row r="82" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A82" s="5" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B82" s="7"/>
       <c r="C82" s="7"/>
@@ -12468,7 +12435,7 @@
     </row>
     <row r="83" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A83" s="6" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="B83" s="7"/>
       <c r="C83" s="7"/>
@@ -12500,7 +12467,7 @@
     </row>
     <row r="84" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A84" s="6" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="B84" s="7"/>
       <c r="C84" s="7"/>
@@ -12530,7 +12497,7 @@
     </row>
     <row r="85" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A85" s="5" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B85" s="7"/>
       <c r="C85" s="7"/>
@@ -12556,7 +12523,7 @@
     </row>
     <row r="86" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A86" s="6" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B86" s="7"/>
       <c r="C86" s="7"/>
@@ -12586,7 +12553,7 @@
     </row>
     <row r="87" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A87" s="6" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B87" s="7"/>
       <c r="C87" s="7"/>
@@ -12618,7 +12585,7 @@
     </row>
     <row r="88" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A88" s="6" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="B88" s="7"/>
       <c r="C88" s="7"/>
@@ -12654,7 +12621,7 @@
     </row>
     <row r="89" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A89" s="6" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="B89" s="7"/>
       <c r="C89" s="7"/>
@@ -12686,7 +12653,7 @@
     </row>
     <row r="90" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A90" s="6" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="B90" s="7"/>
       <c r="C90" s="7"/>
@@ -12716,7 +12683,7 @@
     </row>
     <row r="91" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A91" s="6" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="B91" s="7"/>
       <c r="C91" s="7"/>
@@ -12748,7 +12715,7 @@
     </row>
     <row r="92" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A92" s="6" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B92" s="7"/>
       <c r="C92" s="7"/>
@@ -12794,7 +12761,7 @@
     </row>
     <row r="93" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A93" s="6" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="B93" s="7"/>
       <c r="C93" s="7"/>
@@ -12824,7 +12791,7 @@
     </row>
     <row r="94" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A94" s="6" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="B94" s="7"/>
       <c r="C94" s="7"/>
@@ -12858,7 +12825,7 @@
     </row>
     <row r="95" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A95" s="6" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="B95" s="7"/>
       <c r="C95" s="7"/>
@@ -12888,7 +12855,7 @@
     </row>
     <row r="96" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A96" s="6" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="B96" s="7"/>
       <c r="C96" s="7"/>
@@ -12918,7 +12885,7 @@
     </row>
     <row r="97" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A97" s="6" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="B97" s="7"/>
       <c r="C97" s="7"/>
@@ -12950,7 +12917,7 @@
     </row>
     <row r="98" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A98" s="6" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="B98" s="7"/>
       <c r="C98" s="7"/>
@@ -12980,7 +12947,7 @@
     </row>
     <row r="99" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A99" s="6" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B99" s="7"/>
       <c r="C99" s="7"/>
@@ -13024,7 +12991,7 @@
     </row>
     <row r="100" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A100" s="6" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="B100" s="7"/>
       <c r="C100" s="7"/>
@@ -13056,7 +13023,7 @@
     </row>
     <row r="101" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A101" s="6" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="B101" s="7"/>
       <c r="C101" s="7"/>
@@ -13090,7 +13057,7 @@
     </row>
     <row r="102" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A102" s="6" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="B102" s="7"/>
       <c r="C102" s="7"/>
@@ -13120,7 +13087,7 @@
     </row>
     <row r="103" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A103" s="5" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="B103" s="7"/>
       <c r="C103" s="7"/>
@@ -13146,7 +13113,7 @@
     </row>
     <row r="104" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A104" s="6" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="B104" s="7"/>
       <c r="C104" s="7"/>
@@ -13176,7 +13143,7 @@
     </row>
     <row r="105" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A105" s="6" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="B105" s="7"/>
       <c r="C105" s="7"/>
@@ -13206,7 +13173,7 @@
     </row>
     <row r="106" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A106" s="6" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="B106" s="7"/>
       <c r="C106" s="7"/>
@@ -13236,7 +13203,7 @@
     </row>
     <row r="107" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A107" s="6" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="B107" s="7"/>
       <c r="C107" s="7"/>
@@ -13266,7 +13233,7 @@
     </row>
     <row r="108" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A108" s="6" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="B108" s="7"/>
       <c r="C108" s="7"/>
@@ -13300,7 +13267,7 @@
     </row>
     <row r="109" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A109" s="6" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="B109" s="7"/>
       <c r="C109" s="7"/>
@@ -13330,7 +13297,7 @@
     </row>
     <row r="110" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A110" s="6" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="B110" s="7"/>
       <c r="C110" s="7"/>
@@ -13360,7 +13327,7 @@
     </row>
     <row r="111" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A111" s="6" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="B111" s="7"/>
       <c r="C111" s="7"/>
@@ -13390,7 +13357,7 @@
     </row>
     <row r="112" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A112" s="6" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="B112" s="7"/>
       <c r="C112" s="7"/>
@@ -13426,7 +13393,7 @@
     </row>
     <row r="113" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A113" s="6" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="B113" s="7"/>
       <c r="C113" s="7"/>
@@ -13456,7 +13423,7 @@
     </row>
     <row r="114" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A114" s="6" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="B114" s="7"/>
       <c r="C114" s="7"/>
@@ -13486,7 +13453,7 @@
     </row>
     <row r="115" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A115" s="5" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="B115" s="7"/>
       <c r="C115" s="7"/>
@@ -13512,7 +13479,7 @@
     </row>
     <row r="116" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A116" s="6" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="B116" s="7"/>
       <c r="C116" s="7"/>
@@ -13542,7 +13509,7 @@
     </row>
     <row r="117" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A117" s="6" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="B117" s="7"/>
       <c r="C117" s="7"/>
@@ -13572,7 +13539,7 @@
     </row>
     <row r="118" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A118" s="6" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="B118" s="7"/>
       <c r="C118" s="7"/>
@@ -13602,7 +13569,7 @@
     </row>
     <row r="119" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A119" s="4" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B119" s="7"/>
       <c r="C119" s="7"/>
@@ -13628,7 +13595,7 @@
     </row>
     <row r="120" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A120" s="5" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="B120" s="7"/>
       <c r="C120" s="7"/>
@@ -13654,7 +13621,7 @@
     </row>
     <row r="121" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A121" s="6" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="B121" s="7"/>
       <c r="C121" s="7"/>
@@ -13686,7 +13653,7 @@
     </row>
     <row r="122" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A122" s="6" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="B122" s="7"/>
       <c r="C122" s="7"/>
@@ -13718,7 +13685,7 @@
     </row>
     <row r="123" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A123" s="6" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="B123" s="7"/>
       <c r="C123" s="7"/>
@@ -13752,7 +13719,7 @@
     </row>
     <row r="124" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A124" s="6" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="B124" s="7"/>
       <c r="C124" s="7"/>
@@ -13782,7 +13749,7 @@
     </row>
     <row r="125" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A125" s="6" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="B125" s="7"/>
       <c r="C125" s="7"/>
@@ -13814,7 +13781,7 @@
     </row>
     <row r="126" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A126" s="5" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="B126" s="7"/>
       <c r="C126" s="7"/>
@@ -13840,7 +13807,7 @@
     </row>
     <row r="127" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A127" s="6" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="B127" s="7"/>
       <c r="C127" s="7"/>
@@ -13870,7 +13837,7 @@
     </row>
     <row r="128" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A128" s="6" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="B128" s="7"/>
       <c r="C128" s="7"/>
@@ -13900,7 +13867,7 @@
     </row>
     <row r="129" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A129" s="6" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="B129" s="7"/>
       <c r="C129" s="7"/>
@@ -13930,7 +13897,7 @@
     </row>
     <row r="130" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A130" s="6" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="B130" s="7"/>
       <c r="C130" s="7"/>
@@ -13960,7 +13927,7 @@
     </row>
     <row r="131" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A131" s="6" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="B131" s="7"/>
       <c r="C131" s="7"/>
@@ -13990,7 +13957,7 @@
     </row>
     <row r="132" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A132" s="6" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="B132" s="7"/>
       <c r="C132" s="7">
@@ -14020,7 +13987,7 @@
     </row>
     <row r="133" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A133" s="6" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="B133" s="7"/>
       <c r="C133" s="7"/>
@@ -14052,7 +14019,7 @@
     </row>
     <row r="134" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A134" s="6" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="B134" s="7"/>
       <c r="C134" s="7"/>
@@ -14082,7 +14049,7 @@
     </row>
     <row r="135" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A135" s="5" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="B135" s="7"/>
       <c r="C135" s="7"/>
@@ -14108,7 +14075,7 @@
     </row>
     <row r="136" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A136" s="6" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="B136" s="7"/>
       <c r="C136" s="7"/>
@@ -14138,7 +14105,7 @@
     </row>
     <row r="137" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A137" s="6" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="B137" s="7">
         <v>1</v>
@@ -14168,7 +14135,7 @@
     </row>
     <row r="138" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A138" s="6" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="B138" s="7">
         <v>1</v>
@@ -14200,7 +14167,7 @@
     </row>
     <row r="139" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A139" s="5" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B139" s="7"/>
       <c r="C139" s="7"/>
@@ -14226,7 +14193,7 @@
     </row>
     <row r="140" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A140" s="6" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B140" s="7"/>
       <c r="C140" s="7"/>
@@ -14256,7 +14223,7 @@
     </row>
     <row r="141" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A141" s="5" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="B141" s="7"/>
       <c r="C141" s="7"/>
@@ -14282,7 +14249,7 @@
     </row>
     <row r="142" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A142" s="6" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="B142" s="7"/>
       <c r="C142" s="7"/>
@@ -14314,7 +14281,7 @@
     </row>
     <row r="143" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A143" s="6" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="B143" s="7"/>
       <c r="C143" s="7"/>
@@ -14344,7 +14311,7 @@
     </row>
     <row r="144" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A144" s="6" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="B144" s="7"/>
       <c r="C144" s="7"/>
@@ -14374,7 +14341,7 @@
     </row>
     <row r="145" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A145" s="6" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="B145" s="7"/>
       <c r="C145" s="7"/>
@@ -14404,7 +14371,7 @@
     </row>
     <row r="146" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A146" s="6" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="B146" s="7"/>
       <c r="C146" s="7"/>
@@ -14584,11 +14551,14 @@
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId2"/>
+  <headerFooter>
+    <oddHeader>&amp;C&amp;"Aptos"&amp;12&amp;K000000 LGE Internal Use Only&amp;1#_x000D_</oddHeader>
+  </headerFooter>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A2:V150"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -14619,7 +14589,7 @@
     </row>
     <row r="4" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A4" s="2" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="B4" s="2" t="s">
         <v>3</v>
@@ -14627,10 +14597,10 @@
     </row>
     <row r="5" spans="1:22" x14ac:dyDescent="0.3">
       <c r="B5" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="K5" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="U5" t="s">
         <v>1</v>
@@ -14644,61 +14614,61 @@
         <v>0</v>
       </c>
       <c r="B6" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="C6" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="D6" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="E6" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="F6" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="G6" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="H6" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="I6" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="J6" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="K6" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="L6" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="M6" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="N6" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="O6" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="P6" t="s">
+        <v>116</v>
+      </c>
+      <c r="Q6" t="s">
         <v>117</v>
       </c>
-      <c r="Q6" t="s">
-        <v>118</v>
-      </c>
       <c r="R6" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="S6" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="T6" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="U6" t="s">
         <v>1</v>
@@ -14706,7 +14676,7 @@
     </row>
     <row r="7" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A7" s="4" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B7" s="7"/>
       <c r="C7" s="7"/>
@@ -14732,7 +14702,7 @@
     </row>
     <row r="8" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A8" s="5" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B8" s="7"/>
       <c r="C8" s="7"/>
@@ -14758,7 +14728,7 @@
     </row>
     <row r="9" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A9" s="6" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B9" s="7"/>
       <c r="C9" s="7"/>
@@ -14790,7 +14760,7 @@
     </row>
     <row r="10" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A10" s="5" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B10" s="7"/>
       <c r="C10" s="7"/>
@@ -14816,7 +14786,7 @@
     </row>
     <row r="11" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A11" s="6" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="B11" s="7"/>
       <c r="C11" s="7"/>
@@ -14846,7 +14816,7 @@
     </row>
     <row r="12" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A12" s="6" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B12" s="7"/>
       <c r="C12" s="7"/>
@@ -14886,7 +14856,7 @@
     </row>
     <row r="13" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A13" s="6" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="B13" s="7"/>
       <c r="C13" s="7"/>
@@ -14916,7 +14886,7 @@
     </row>
     <row r="14" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A14" s="5" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B14" s="7"/>
       <c r="C14" s="7"/>
@@ -14942,7 +14912,7 @@
     </row>
     <row r="15" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A15" s="6" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="B15" s="7"/>
       <c r="C15" s="7"/>
@@ -14974,7 +14944,7 @@
     </row>
     <row r="16" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A16" s="6" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B16" s="7"/>
       <c r="C16" s="7"/>
@@ -15008,7 +14978,7 @@
     </row>
     <row r="17" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A17" s="5" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B17" s="7"/>
       <c r="C17" s="7"/>
@@ -15034,7 +15004,7 @@
     </row>
     <row r="18" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A18" s="6" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B18" s="7"/>
       <c r="C18" s="7"/>
@@ -15064,7 +15034,7 @@
     </row>
     <row r="19" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A19" s="6" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="B19" s="7"/>
       <c r="C19" s="7"/>
@@ -15094,7 +15064,7 @@
     </row>
     <row r="20" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A20" s="6" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B20" s="7"/>
       <c r="C20" s="7"/>
@@ -15126,7 +15096,7 @@
     </row>
     <row r="21" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A21" s="6" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="B21" s="7"/>
       <c r="C21" s="7"/>
@@ -15156,7 +15126,7 @@
     </row>
     <row r="22" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A22" s="5" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="B22" s="7"/>
       <c r="C22" s="7"/>
@@ -15182,7 +15152,7 @@
     </row>
     <row r="23" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A23" s="6" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="B23" s="7"/>
       <c r="C23" s="7"/>
@@ -15212,7 +15182,7 @@
     </row>
     <row r="24" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A24" s="6" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="B24" s="7"/>
       <c r="C24" s="7"/>
@@ -15242,7 +15212,7 @@
     </row>
     <row r="25" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A25" s="6" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B25" s="7"/>
       <c r="C25" s="7"/>
@@ -15274,7 +15244,7 @@
     </row>
     <row r="26" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A26" s="5" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="B26" s="7"/>
       <c r="C26" s="7"/>
@@ -15300,7 +15270,7 @@
     </row>
     <row r="27" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A27" s="6" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="B27" s="7"/>
       <c r="C27" s="7"/>
@@ -15330,7 +15300,7 @@
     </row>
     <row r="28" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A28" s="4" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B28" s="7"/>
       <c r="C28" s="7"/>
@@ -15356,7 +15326,7 @@
     </row>
     <row r="29" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A29" s="5" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B29" s="7"/>
       <c r="C29" s="7"/>
@@ -15382,7 +15352,7 @@
     </row>
     <row r="30" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A30" s="6" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="B30" s="7"/>
       <c r="C30" s="7"/>
@@ -15412,7 +15382,7 @@
     </row>
     <row r="31" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A31" s="6" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B31" s="7"/>
       <c r="C31" s="7"/>
@@ -15444,7 +15414,7 @@
     </row>
     <row r="32" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A32" s="6" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="B32" s="7"/>
       <c r="C32" s="7"/>
@@ -15478,7 +15448,7 @@
     </row>
     <row r="33" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A33" s="6" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B33" s="7"/>
       <c r="C33" s="7"/>
@@ -15508,7 +15478,7 @@
     </row>
     <row r="34" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A34" s="6" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="B34" s="7"/>
       <c r="C34" s="7"/>
@@ -15542,7 +15512,7 @@
     </row>
     <row r="35" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A35" s="6" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="B35" s="7"/>
       <c r="C35" s="7"/>
@@ -15572,7 +15542,7 @@
     </row>
     <row r="36" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A36" s="6" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="B36" s="7"/>
       <c r="C36" s="7"/>
@@ -15602,7 +15572,7 @@
     </row>
     <row r="37" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A37" s="6" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="B37" s="7"/>
       <c r="C37" s="7"/>
@@ -15634,7 +15604,7 @@
     </row>
     <row r="38" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A38" s="6" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="B38" s="7"/>
       <c r="C38" s="7"/>
@@ -15668,7 +15638,7 @@
     </row>
     <row r="39" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A39" s="6" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="B39" s="7"/>
       <c r="C39" s="7"/>
@@ -15700,7 +15670,7 @@
     </row>
     <row r="40" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A40" s="6" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="B40" s="7"/>
       <c r="C40" s="7"/>
@@ -15732,7 +15702,7 @@
     </row>
     <row r="41" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A41" s="6" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="B41" s="7"/>
       <c r="C41" s="7"/>
@@ -15766,7 +15736,7 @@
     </row>
     <row r="42" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A42" s="6" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="B42" s="7"/>
       <c r="C42" s="7"/>
@@ -15802,7 +15772,7 @@
     </row>
     <row r="43" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A43" s="6" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="B43" s="7"/>
       <c r="C43" s="7"/>
@@ -15838,7 +15808,7 @@
     </row>
     <row r="44" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A44" s="6" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="B44" s="7"/>
       <c r="C44" s="7"/>
@@ -15868,7 +15838,7 @@
     </row>
     <row r="45" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A45" s="6" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="B45" s="7"/>
       <c r="C45" s="7"/>
@@ -15906,7 +15876,7 @@
     </row>
     <row r="46" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A46" s="4" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B46" s="7"/>
       <c r="C46" s="7"/>
@@ -15932,7 +15902,7 @@
     </row>
     <row r="47" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A47" s="5" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B47" s="7"/>
       <c r="C47" s="7"/>
@@ -15958,7 +15928,7 @@
     </row>
     <row r="48" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A48" s="6" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B48" s="7"/>
       <c r="C48" s="7"/>
@@ -15996,7 +15966,7 @@
     </row>
     <row r="49" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A49" s="5" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="B49" s="7"/>
       <c r="C49" s="7"/>
@@ -16022,7 +15992,7 @@
     </row>
     <row r="50" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A50" s="6" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="B50" s="7"/>
       <c r="C50" s="7"/>
@@ -16054,7 +16024,7 @@
     </row>
     <row r="51" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A51" s="5" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="B51" s="7"/>
       <c r="C51" s="7"/>
@@ -16080,7 +16050,7 @@
     </row>
     <row r="52" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A52" s="6" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="B52" s="7"/>
       <c r="C52" s="7"/>
@@ -16110,7 +16080,7 @@
     </row>
     <row r="53" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A53" s="5" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B53" s="7"/>
       <c r="C53" s="7"/>
@@ -16136,7 +16106,7 @@
     </row>
     <row r="54" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A54" s="6" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B54" s="7"/>
       <c r="C54" s="7"/>
@@ -16174,7 +16144,7 @@
     </row>
     <row r="55" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A55" s="5" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="B55" s="7"/>
       <c r="C55" s="7"/>
@@ -16200,7 +16170,7 @@
     </row>
     <row r="56" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A56" s="6" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="B56" s="7"/>
       <c r="C56" s="7"/>
@@ -16230,7 +16200,7 @@
     </row>
     <row r="57" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A57" s="6" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="B57" s="7"/>
       <c r="C57" s="7"/>
@@ -16260,7 +16230,7 @@
     </row>
     <row r="58" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A58" s="6" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="B58" s="7"/>
       <c r="C58" s="7"/>
@@ -16292,7 +16262,7 @@
     </row>
     <row r="59" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A59" s="5" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B59" s="7"/>
       <c r="C59" s="7"/>
@@ -16318,7 +16288,7 @@
     </row>
     <row r="60" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A60" s="6" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="B60" s="7"/>
       <c r="C60" s="7"/>
@@ -16348,7 +16318,7 @@
     </row>
     <row r="61" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A61" s="6" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B61" s="7"/>
       <c r="C61" s="7"/>
@@ -16378,7 +16348,7 @@
     </row>
     <row r="62" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A62" s="6" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="B62" s="7"/>
       <c r="C62" s="7"/>
@@ -16408,7 +16378,7 @@
     </row>
     <row r="63" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A63" s="6" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="B63" s="7"/>
       <c r="C63" s="7"/>
@@ -16438,7 +16408,7 @@
     </row>
     <row r="64" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A64" s="5" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="B64" s="7"/>
       <c r="C64" s="7"/>
@@ -16464,7 +16434,7 @@
     </row>
     <row r="65" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A65" s="6" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="B65" s="7"/>
       <c r="C65" s="7"/>
@@ -16494,7 +16464,7 @@
     </row>
     <row r="66" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A66" s="6" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="B66" s="7"/>
       <c r="C66" s="7"/>
@@ -16528,7 +16498,7 @@
     </row>
     <row r="67" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A67" s="4" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B67" s="7"/>
       <c r="C67" s="7"/>
@@ -16554,7 +16524,7 @@
     </row>
     <row r="68" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A68" s="5" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B68" s="7"/>
       <c r="C68" s="7"/>
@@ -16580,7 +16550,7 @@
     </row>
     <row r="69" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A69" s="6" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B69" s="7"/>
       <c r="C69" s="7"/>
@@ -16612,7 +16582,7 @@
     </row>
     <row r="70" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A70" s="5" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B70" s="7"/>
       <c r="C70" s="7"/>
@@ -16638,7 +16608,7 @@
     </row>
     <row r="71" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A71" s="6" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="B71" s="7"/>
       <c r="C71" s="7"/>
@@ -16672,7 +16642,7 @@
     </row>
     <row r="72" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A72" s="6" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B72" s="7"/>
       <c r="C72" s="7"/>
@@ -16706,7 +16676,7 @@
     </row>
     <row r="73" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A73" s="6" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="B73" s="7"/>
       <c r="C73" s="7"/>
@@ -16738,7 +16708,7 @@
     </row>
     <row r="74" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A74" s="6" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="B74" s="7"/>
       <c r="C74" s="7"/>
@@ -16770,7 +16740,7 @@
     </row>
     <row r="75" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A75" s="5" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B75" s="7"/>
       <c r="C75" s="7"/>
@@ -16796,7 +16766,7 @@
     </row>
     <row r="76" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A76" s="6" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="B76" s="7"/>
       <c r="C76" s="7"/>
@@ -16826,7 +16796,7 @@
     </row>
     <row r="77" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A77" s="6" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="B77" s="7"/>
       <c r="C77" s="7"/>
@@ -16864,7 +16834,7 @@
     </row>
     <row r="78" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A78" s="6" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="B78" s="7"/>
       <c r="C78" s="7"/>
@@ -16898,7 +16868,7 @@
     </row>
     <row r="79" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A79" s="6" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B79" s="7"/>
       <c r="C79" s="7"/>
@@ -16936,7 +16906,7 @@
     </row>
     <row r="80" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A80" s="5" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="B80" s="7"/>
       <c r="C80" s="7"/>
@@ -16962,7 +16932,7 @@
     </row>
     <row r="81" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A81" s="6" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="B81" s="7"/>
       <c r="C81" s="7"/>
@@ -16992,7 +16962,7 @@
     </row>
     <row r="82" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A82" s="5" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B82" s="7"/>
       <c r="C82" s="7"/>
@@ -17018,7 +16988,7 @@
     </row>
     <row r="83" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A83" s="6" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="B83" s="7"/>
       <c r="C83" s="7"/>
@@ -17050,7 +17020,7 @@
     </row>
     <row r="84" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A84" s="6" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="B84" s="7"/>
       <c r="C84" s="7"/>
@@ -17080,7 +17050,7 @@
     </row>
     <row r="85" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A85" s="5" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B85" s="7"/>
       <c r="C85" s="7"/>
@@ -17106,7 +17076,7 @@
     </row>
     <row r="86" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A86" s="6" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B86" s="7"/>
       <c r="C86" s="7"/>
@@ -17136,7 +17106,7 @@
     </row>
     <row r="87" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A87" s="6" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B87" s="7"/>
       <c r="C87" s="7"/>
@@ -17168,7 +17138,7 @@
     </row>
     <row r="88" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A88" s="6" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="B88" s="7"/>
       <c r="C88" s="7"/>
@@ -17204,7 +17174,7 @@
     </row>
     <row r="89" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A89" s="6" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="B89" s="7"/>
       <c r="C89" s="7"/>
@@ -17236,7 +17206,7 @@
     </row>
     <row r="90" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A90" s="6" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="B90" s="7"/>
       <c r="C90" s="7"/>
@@ -17266,7 +17236,7 @@
     </row>
     <row r="91" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A91" s="6" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="B91" s="7"/>
       <c r="C91" s="7"/>
@@ -17298,7 +17268,7 @@
     </row>
     <row r="92" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A92" s="6" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B92" s="7"/>
       <c r="C92" s="7"/>
@@ -17344,7 +17314,7 @@
     </row>
     <row r="93" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A93" s="6" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="B93" s="7"/>
       <c r="C93" s="7"/>
@@ -17374,7 +17344,7 @@
     </row>
     <row r="94" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A94" s="6" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="B94" s="7"/>
       <c r="C94" s="7"/>
@@ -17408,7 +17378,7 @@
     </row>
     <row r="95" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A95" s="6" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="B95" s="7"/>
       <c r="C95" s="7"/>
@@ -17438,7 +17408,7 @@
     </row>
     <row r="96" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A96" s="6" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="B96" s="7"/>
       <c r="C96" s="7"/>
@@ -17468,7 +17438,7 @@
     </row>
     <row r="97" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A97" s="6" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="B97" s="7"/>
       <c r="C97" s="7"/>
@@ -17500,7 +17470,7 @@
     </row>
     <row r="98" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A98" s="6" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="B98" s="7"/>
       <c r="C98" s="7"/>
@@ -17530,7 +17500,7 @@
     </row>
     <row r="99" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A99" s="6" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B99" s="7"/>
       <c r="C99" s="7"/>
@@ -17574,7 +17544,7 @@
     </row>
     <row r="100" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A100" s="6" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="B100" s="7"/>
       <c r="C100" s="7"/>
@@ -17606,7 +17576,7 @@
     </row>
     <row r="101" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A101" s="6" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="B101" s="7"/>
       <c r="C101" s="7"/>
@@ -17640,7 +17610,7 @@
     </row>
     <row r="102" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A102" s="6" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="B102" s="7"/>
       <c r="C102" s="7"/>
@@ -17670,7 +17640,7 @@
     </row>
     <row r="103" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A103" s="5" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="B103" s="7"/>
       <c r="C103" s="7"/>
@@ -17696,7 +17666,7 @@
     </row>
     <row r="104" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A104" s="6" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="B104" s="7"/>
       <c r="C104" s="7"/>
@@ -17726,7 +17696,7 @@
     </row>
     <row r="105" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A105" s="6" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="B105" s="7"/>
       <c r="C105" s="7"/>
@@ -17756,7 +17726,7 @@
     </row>
     <row r="106" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A106" s="6" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="B106" s="7"/>
       <c r="C106" s="7"/>
@@ -17786,7 +17756,7 @@
     </row>
     <row r="107" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A107" s="6" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="B107" s="7"/>
       <c r="C107" s="7"/>
@@ -17816,7 +17786,7 @@
     </row>
     <row r="108" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A108" s="6" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="B108" s="7"/>
       <c r="C108" s="7"/>
@@ -17850,7 +17820,7 @@
     </row>
     <row r="109" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A109" s="6" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="B109" s="7"/>
       <c r="C109" s="7"/>
@@ -17880,7 +17850,7 @@
     </row>
     <row r="110" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A110" s="6" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="B110" s="7"/>
       <c r="C110" s="7"/>
@@ -17910,7 +17880,7 @@
     </row>
     <row r="111" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A111" s="6" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="B111" s="7"/>
       <c r="C111" s="7"/>
@@ -17940,7 +17910,7 @@
     </row>
     <row r="112" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A112" s="6" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="B112" s="7"/>
       <c r="C112" s="7"/>
@@ -17976,7 +17946,7 @@
     </row>
     <row r="113" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A113" s="6" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="B113" s="7"/>
       <c r="C113" s="7"/>
@@ -18006,7 +17976,7 @@
     </row>
     <row r="114" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A114" s="6" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="B114" s="7"/>
       <c r="C114" s="7"/>
@@ -18036,7 +18006,7 @@
     </row>
     <row r="115" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A115" s="5" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="B115" s="7"/>
       <c r="C115" s="7"/>
@@ -18062,7 +18032,7 @@
     </row>
     <row r="116" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A116" s="6" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="B116" s="7"/>
       <c r="C116" s="7"/>
@@ -18092,7 +18062,7 @@
     </row>
     <row r="117" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A117" s="6" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="B117" s="7"/>
       <c r="C117" s="7"/>
@@ -18122,7 +18092,7 @@
     </row>
     <row r="118" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A118" s="6" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="B118" s="7"/>
       <c r="C118" s="7"/>
@@ -18152,7 +18122,7 @@
     </row>
     <row r="119" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A119" s="4" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B119" s="7"/>
       <c r="C119" s="7"/>
@@ -18178,7 +18148,7 @@
     </row>
     <row r="120" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A120" s="5" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="B120" s="7"/>
       <c r="C120" s="7"/>
@@ -18204,7 +18174,7 @@
     </row>
     <row r="121" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A121" s="6" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="B121" s="7"/>
       <c r="C121" s="7"/>
@@ -18236,7 +18206,7 @@
     </row>
     <row r="122" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A122" s="6" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="B122" s="7"/>
       <c r="C122" s="7"/>
@@ -18268,7 +18238,7 @@
     </row>
     <row r="123" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A123" s="6" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="B123" s="7"/>
       <c r="C123" s="7"/>
@@ -18302,7 +18272,7 @@
     </row>
     <row r="124" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A124" s="6" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="B124" s="7"/>
       <c r="C124" s="7"/>
@@ -18332,7 +18302,7 @@
     </row>
     <row r="125" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A125" s="6" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="B125" s="7"/>
       <c r="C125" s="7"/>
@@ -18364,7 +18334,7 @@
     </row>
     <row r="126" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A126" s="5" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="B126" s="7"/>
       <c r="C126" s="7"/>
@@ -18390,7 +18360,7 @@
     </row>
     <row r="127" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A127" s="6" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="B127" s="7"/>
       <c r="C127" s="7"/>
@@ -18420,7 +18390,7 @@
     </row>
     <row r="128" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A128" s="6" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="B128" s="7"/>
       <c r="C128" s="7"/>
@@ -18450,7 +18420,7 @@
     </row>
     <row r="129" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A129" s="6" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="B129" s="7"/>
       <c r="C129" s="7"/>
@@ -18480,7 +18450,7 @@
     </row>
     <row r="130" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A130" s="6" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="B130" s="7"/>
       <c r="C130" s="7"/>
@@ -18510,7 +18480,7 @@
     </row>
     <row r="131" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A131" s="6" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="B131" s="7"/>
       <c r="C131" s="7"/>
@@ -18540,7 +18510,7 @@
     </row>
     <row r="132" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A132" s="6" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="B132" s="7"/>
       <c r="C132" s="7">
@@ -18570,7 +18540,7 @@
     </row>
     <row r="133" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A133" s="6" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="B133" s="7"/>
       <c r="C133" s="7"/>
@@ -18602,7 +18572,7 @@
     </row>
     <row r="134" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A134" s="6" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="B134" s="7"/>
       <c r="C134" s="7"/>
@@ -18632,7 +18602,7 @@
     </row>
     <row r="135" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A135" s="5" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="B135" s="7"/>
       <c r="C135" s="7"/>
@@ -18658,7 +18628,7 @@
     </row>
     <row r="136" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A136" s="6" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="B136" s="7"/>
       <c r="C136" s="7"/>
@@ -18688,7 +18658,7 @@
     </row>
     <row r="137" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A137" s="6" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="B137" s="7">
         <v>2</v>
@@ -18718,7 +18688,7 @@
     </row>
     <row r="138" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A138" s="6" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="B138" s="7">
         <v>40</v>
@@ -18750,7 +18720,7 @@
     </row>
     <row r="139" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A139" s="5" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B139" s="7"/>
       <c r="C139" s="7"/>
@@ -18776,7 +18746,7 @@
     </row>
     <row r="140" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A140" s="6" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B140" s="7"/>
       <c r="C140" s="7"/>
@@ -18806,7 +18776,7 @@
     </row>
     <row r="141" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A141" s="5" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="B141" s="7"/>
       <c r="C141" s="7"/>
@@ -18832,7 +18802,7 @@
     </row>
     <row r="142" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A142" s="6" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="B142" s="7"/>
       <c r="C142" s="7"/>
@@ -18864,7 +18834,7 @@
     </row>
     <row r="143" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A143" s="6" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="B143" s="7"/>
       <c r="C143" s="7"/>
@@ -18894,7 +18864,7 @@
     </row>
     <row r="144" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A144" s="6" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="B144" s="7"/>
       <c r="C144" s="7"/>
@@ -18924,7 +18894,7 @@
     </row>
     <row r="145" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A145" s="6" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="B145" s="7"/>
       <c r="C145" s="7"/>
@@ -18954,7 +18924,7 @@
     </row>
     <row r="146" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A146" s="6" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="B146" s="7"/>
       <c r="C146" s="7"/>
@@ -19134,5 +19104,8 @@
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId2"/>
+  <headerFooter>
+    <oddHeader>&amp;C&amp;"Aptos"&amp;12&amp;K000000 LGE Internal Use Only&amp;1#_x000D_</oddHeader>
+  </headerFooter>
 </worksheet>
 </file>